--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N2">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q2">
-        <v>6.822822728639748</v>
+        <v>0.2055822062632222</v>
       </c>
       <c r="R2">
-        <v>6.822822728639748</v>
+        <v>1.850239856369</v>
       </c>
       <c r="S2">
-        <v>0.05036532846720711</v>
+        <v>0.001434298463975272</v>
       </c>
       <c r="T2">
-        <v>0.05036532846720711</v>
+        <v>0.001434298463975272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N3">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q3">
-        <v>46.12305968282143</v>
+        <v>1.261723641429333</v>
       </c>
       <c r="R3">
-        <v>46.12305968282143</v>
+        <v>11.355512772864</v>
       </c>
       <c r="S3">
-        <v>0.3404753638236518</v>
+        <v>0.008802747639288884</v>
       </c>
       <c r="T3">
-        <v>0.3404753638236518</v>
+        <v>0.008802747639288884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N4">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q4">
-        <v>38.04716887249849</v>
+        <v>1.045203506164555</v>
       </c>
       <c r="R4">
-        <v>38.04716887249849</v>
+        <v>9.406831555480998</v>
       </c>
       <c r="S4">
-        <v>0.2808600243220337</v>
+        <v>0.007292137829836974</v>
       </c>
       <c r="T4">
-        <v>0.2808600243220337</v>
+        <v>0.007292137829836977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H5">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N5">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O5">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P5">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q5">
-        <v>31.32337314346157</v>
+        <v>0.8802682844353334</v>
       </c>
       <c r="R5">
-        <v>31.32337314346157</v>
+        <v>7.922414559918</v>
       </c>
       <c r="S5">
-        <v>0.2312257022960731</v>
+        <v>0.006141423770086343</v>
       </c>
       <c r="T5">
-        <v>0.2312257022960731</v>
+        <v>0.006141423770086345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,359 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H6">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N6">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q6">
-        <v>13.15023361457073</v>
+        <v>0.4023515589548889</v>
       </c>
       <c r="R6">
-        <v>13.15023361457073</v>
+        <v>3.621164030594</v>
       </c>
       <c r="S6">
-        <v>0.09707358109103434</v>
+        <v>0.002807111731489831</v>
       </c>
       <c r="T6">
-        <v>0.09707358109103434</v>
+        <v>0.002807111731489831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.285689666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.857069</v>
+      </c>
+      <c r="O7">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="P7">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="Q7">
+        <v>7.558764975162667</v>
+      </c>
+      <c r="R7">
+        <v>68.028884776464</v>
+      </c>
+      <c r="S7">
+        <v>0.05273571672610948</v>
+      </c>
+      <c r="T7">
+        <v>0.05273571672610949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.890688</v>
+      </c>
+      <c r="N8">
+        <v>23.672064</v>
+      </c>
+      <c r="O8">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="P8">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="Q8">
+        <v>46.390554136576</v>
+      </c>
+      <c r="R8">
+        <v>417.514987229184</v>
+      </c>
+      <c r="S8">
+        <v>0.3236559318555966</v>
+      </c>
+      <c r="T8">
+        <v>0.3236559318555967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.536593666666666</v>
+      </c>
+      <c r="N9">
+        <v>19.609781</v>
+      </c>
+      <c r="O9">
+        <v>0.2754065676927831</v>
+      </c>
+      <c r="P9">
+        <v>0.2754065676927832</v>
+      </c>
+      <c r="Q9">
+        <v>38.42962772857067</v>
+      </c>
+      <c r="R9">
+        <v>345.866649557136</v>
+      </c>
+      <c r="S9">
+        <v>0.2681144298629461</v>
+      </c>
+      <c r="T9">
+        <v>0.2681144298629462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.879152</v>
+      </c>
+      <c r="H10">
+        <v>17.637456</v>
+      </c>
+      <c r="I10">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J10">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.505106</v>
+      </c>
+      <c r="N10">
+        <v>16.515318</v>
+      </c>
+      <c r="O10">
+        <v>0.231946855741777</v>
+      </c>
+      <c r="P10">
+        <v>0.2319468557417771</v>
+      </c>
+      <c r="Q10">
+        <v>32.36535495011201</v>
+      </c>
+      <c r="R10">
+        <v>291.288194551008</v>
+      </c>
+      <c r="S10">
+        <v>0.2258054319716907</v>
+      </c>
+      <c r="T10">
+        <v>0.2258054319716907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.879152</v>
+      </c>
+      <c r="H11">
+        <v>17.637456</v>
+      </c>
+      <c r="I11">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J11">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.516264666666667</v>
+      </c>
+      <c r="N11">
+        <v>7.548794</v>
+      </c>
+      <c r="O11">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="P11">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="Q11">
+        <v>14.79350244756267</v>
+      </c>
+      <c r="R11">
+        <v>133.141522028064</v>
+      </c>
+      <c r="S11">
+        <v>0.1032107701489797</v>
+      </c>
+      <c r="T11">
+        <v>0.1032107701489797</v>
       </c>
     </row>
   </sheetData>
